--- a/Sesion9/asesinatos_lideres.xlsx
+++ b/Sesion9/asesinatos_lideres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/ma_garzon46_uniandes_edu_co/Documents/Curso EdCo - Herramientas de programación/2023 - Clases/Clase 9 - Ejercicio 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nib1l\Documents\Andes_ADDBD\Sesion9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E092E676-A76B-4B32-9820-346AE6EA1174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AEBD607-2A85-4084-9DF7-D7124A7D1123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="16940" xr2:uid="{E20BE26A-85BB-9043-A9D8-C479ED60D099}"/>
+    <workbookView xWindow="1716" yWindow="2496" windowWidth="17304" windowHeight="8892" xr2:uid="{E20BE26A-85BB-9043-A9D8-C479ED60D099}"/>
   </bookViews>
   <sheets>
     <sheet name="asesinatos_lideres_20_06" sheetId="1" r:id="rId1"/>
@@ -9287,7 +9287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9424,9 +9424,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9464,7 +9464,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9570,7 +9570,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9712,7 +9712,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9726,24 +9726,24 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="69.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" customWidth="1"/>
-    <col min="10" max="10" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.44140625" customWidth="1"/>
+    <col min="10" max="10" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" customWidth="1"/>
-    <col min="13" max="13" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="81.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -10713,7 +10713,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>112</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>128</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>133</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>148</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>153</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>158</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>167</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>172</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>177</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>180</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>183</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>190</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>195</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>198</v>
       </c>
@@ -11615,7 +11615,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>203</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>207</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>210</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>216</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>222</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>227</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>231</v>
       </c>
@@ -11902,7 +11902,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>237</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>240</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>245</v>
       </c>
@@ -12025,7 +12025,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>251</v>
       </c>
@@ -12066,7 +12066,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>256</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>261</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>266</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>270</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>274</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>278</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>281</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>287</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>293</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>297</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>303</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>308</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>315</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>322</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>327</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>331</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>337</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>342</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>347</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>352</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>357</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>361</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>366</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>372</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>377</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>382</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>388</v>
       </c>
@@ -13173,7 +13173,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>394</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>400</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>404</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>409</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>414</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>419</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>424</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>429</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>433</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>439</v>
       </c>
@@ -13583,7 +13583,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>445</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>450</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>472</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>477</v>
       </c>
@@ -13911,7 +13911,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>480</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>485</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>491</v>
       </c>
@@ -14034,7 +14034,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>498</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>500</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>503</v>
       </c>
@@ -14157,7 +14157,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>509</v>
       </c>
@@ -14198,7 +14198,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>513</v>
       </c>
@@ -14239,7 +14239,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>517</v>
       </c>
@@ -14280,7 +14280,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>522</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>526</v>
       </c>
@@ -14362,7 +14362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>530</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>535</v>
       </c>
@@ -14444,7 +14444,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>540</v>
       </c>
@@ -14485,7 +14485,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>545</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>549</v>
       </c>
@@ -14567,7 +14567,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>554</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>558</v>
       </c>
@@ -14649,7 +14649,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>563</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>567</v>
       </c>
@@ -14731,7 +14731,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>574</v>
       </c>
@@ -14772,7 +14772,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>578</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>581</v>
       </c>
@@ -14854,7 +14854,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>584</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>587</v>
       </c>
@@ -14936,7 +14936,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>592</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>602</v>
       </c>
@@ -15059,7 +15059,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>526</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>608</v>
       </c>
@@ -15141,7 +15141,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>612</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>618</v>
       </c>
@@ -15223,7 +15223,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>623</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>628</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>633</v>
       </c>
@@ -15346,7 +15346,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>638</v>
       </c>
@@ -15387,7 +15387,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>644</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>15</v>
       </c>
@@ -15469,7 +15469,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>15</v>
       </c>
@@ -15510,7 +15510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>15</v>
       </c>
@@ -15551,7 +15551,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>663</v>
       </c>
@@ -15592,7 +15592,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>670</v>
       </c>
@@ -15633,7 +15633,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>675</v>
       </c>
@@ -15674,7 +15674,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>682</v>
       </c>
@@ -15715,7 +15715,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>686</v>
       </c>
@@ -15756,7 +15756,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>691</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>697</v>
       </c>
@@ -15838,7 +15838,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>701</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>526</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>526</v>
       </c>
@@ -15961,7 +15961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>708</v>
       </c>
@@ -16002,7 +16002,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>715</v>
       </c>
@@ -16043,7 +16043,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>721</v>
       </c>
@@ -16084,7 +16084,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>726</v>
       </c>
@@ -16125,7 +16125,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>730</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>734</v>
       </c>
@@ -16207,7 +16207,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>738</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>742</v>
       </c>
@@ -16289,7 +16289,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>746</v>
       </c>
@@ -16330,7 +16330,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>751</v>
       </c>
@@ -16371,7 +16371,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>755</v>
       </c>
@@ -16412,7 +16412,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>758</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>763</v>
       </c>
@@ -16494,7 +16494,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>768</v>
       </c>
@@ -16535,7 +16535,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>774</v>
       </c>
@@ -16576,7 +16576,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>779</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>784</v>
       </c>
@@ -16658,7 +16658,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>789</v>
       </c>
@@ -16699,7 +16699,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>795</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>800</v>
       </c>
@@ -16781,7 +16781,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>806</v>
       </c>
@@ -16822,7 +16822,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>811</v>
       </c>
@@ -16863,7 +16863,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>816</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>822</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>827</v>
       </c>
@@ -16986,7 +16986,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>832</v>
       </c>
@@ -17027,7 +17027,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>841</v>
       </c>
@@ -17068,7 +17068,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>845</v>
       </c>
@@ -17109,7 +17109,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>851</v>
       </c>
@@ -17150,7 +17150,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>857</v>
       </c>
@@ -17191,7 +17191,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>863</v>
       </c>
@@ -17232,7 +17232,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>526</v>
       </c>
@@ -17273,7 +17273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>869</v>
       </c>
@@ -17314,7 +17314,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>875</v>
       </c>
@@ -17355,7 +17355,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>878</v>
       </c>
@@ -17396,7 +17396,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>880</v>
       </c>
@@ -17437,7 +17437,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>884</v>
       </c>
@@ -17478,7 +17478,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>889</v>
       </c>
@@ -17519,7 +17519,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>895</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>900</v>
       </c>
@@ -17601,7 +17601,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>905</v>
       </c>
@@ -17642,7 +17642,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>910</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>912</v>
       </c>
@@ -17724,7 +17724,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>914</v>
       </c>
@@ -17765,7 +17765,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>918</v>
       </c>
@@ -17806,7 +17806,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>924</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>929</v>
       </c>
@@ -17888,7 +17888,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>934</v>
       </c>
@@ -17929,7 +17929,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>937</v>
       </c>
@@ -17970,7 +17970,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>940</v>
       </c>
@@ -18011,7 +18011,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>944</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>948</v>
       </c>
@@ -18093,7 +18093,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>950</v>
       </c>
@@ -18134,7 +18134,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>953</v>
       </c>
@@ -18175,7 +18175,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>955</v>
       </c>
@@ -18216,7 +18216,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>957</v>
       </c>
@@ -18257,7 +18257,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>962</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>966</v>
       </c>
@@ -18339,7 +18339,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>968</v>
       </c>
@@ -18380,7 +18380,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>974</v>
       </c>
@@ -18421,7 +18421,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>977</v>
       </c>
@@ -18462,7 +18462,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>979</v>
       </c>
@@ -18503,7 +18503,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>982</v>
       </c>
@@ -18544,7 +18544,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>985</v>
       </c>
@@ -18585,7 +18585,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>988</v>
       </c>
@@ -18626,7 +18626,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>994</v>
       </c>
@@ -18667,7 +18667,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>997</v>
       </c>
@@ -18708,7 +18708,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>999</v>
       </c>
@@ -18749,7 +18749,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>1003</v>
       </c>
@@ -18790,7 +18790,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>1008</v>
       </c>
@@ -18831,7 +18831,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>1011</v>
       </c>
@@ -18872,7 +18872,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>1014</v>
       </c>
@@ -18913,7 +18913,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>1020</v>
       </c>
@@ -18954,7 +18954,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>1022</v>
       </c>
@@ -18995,7 +18995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>1025</v>
       </c>
@@ -19036,7 +19036,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>1030</v>
       </c>
@@ -19077,7 +19077,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>1036</v>
       </c>
@@ -19118,7 +19118,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>1043</v>
       </c>
@@ -19159,7 +19159,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>1049</v>
       </c>
@@ -19200,7 +19200,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>1054</v>
       </c>
@@ -19241,7 +19241,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>1061</v>
       </c>
@@ -19282,7 +19282,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>1063</v>
       </c>
@@ -19323,7 +19323,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>1067</v>
       </c>
@@ -19364,7 +19364,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>526</v>
       </c>
@@ -19405,7 +19405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>1071</v>
       </c>
@@ -19446,7 +19446,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>1075</v>
       </c>
@@ -19487,7 +19487,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1079</v>
       </c>
@@ -19528,7 +19528,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1084</v>
       </c>
@@ -19569,7 +19569,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1087</v>
       </c>
@@ -19610,7 +19610,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1091</v>
       </c>
@@ -19651,7 +19651,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1094</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1098</v>
       </c>
@@ -19733,7 +19733,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1104</v>
       </c>
@@ -19774,7 +19774,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1109</v>
       </c>
@@ -19815,7 +19815,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>526</v>
       </c>
@@ -19856,7 +19856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1114</v>
       </c>
@@ -19897,7 +19897,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1117</v>
       </c>
@@ -19938,7 +19938,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1120</v>
       </c>
@@ -19979,7 +19979,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1123</v>
       </c>
@@ -20020,7 +20020,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1127</v>
       </c>
@@ -20061,7 +20061,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1130</v>
       </c>
@@ -20102,7 +20102,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1132</v>
       </c>
@@ -20143,7 +20143,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1135</v>
       </c>
@@ -20184,7 +20184,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1141</v>
       </c>
@@ -20225,7 +20225,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1146</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1151</v>
       </c>
@@ -20307,7 +20307,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1154</v>
       </c>
@@ -20348,7 +20348,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1158</v>
       </c>
@@ -20389,7 +20389,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1163</v>
       </c>
@@ -20430,7 +20430,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1168</v>
       </c>
@@ -20471,7 +20471,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>526</v>
       </c>
@@ -20512,7 +20512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1174</v>
       </c>
@@ -20553,7 +20553,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1180</v>
       </c>
@@ -20594,7 +20594,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1186</v>
       </c>
@@ -20635,7 +20635,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1189</v>
       </c>
@@ -20676,7 +20676,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1195</v>
       </c>
@@ -20717,7 +20717,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1200</v>
       </c>
@@ -20758,7 +20758,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1203</v>
       </c>
@@ -20799,7 +20799,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1208</v>
       </c>
@@ -20840,7 +20840,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1213</v>
       </c>
@@ -20881,7 +20881,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1216</v>
       </c>
@@ -20922,7 +20922,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1220</v>
       </c>
@@ -20963,7 +20963,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1225</v>
       </c>
@@ -21004,7 +21004,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1229</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1234</v>
       </c>
@@ -21086,7 +21086,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1238</v>
       </c>
@@ -21127,7 +21127,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1242</v>
       </c>
@@ -21168,7 +21168,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>526</v>
       </c>
@@ -21209,7 +21209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1248</v>
       </c>
@@ -21250,7 +21250,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1252</v>
       </c>
@@ -21291,7 +21291,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1255</v>
       </c>
@@ -21332,7 +21332,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1260</v>
       </c>
@@ -21373,7 +21373,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1267</v>
       </c>
@@ -21414,7 +21414,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1272</v>
       </c>
@@ -21455,7 +21455,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1278</v>
       </c>
@@ -21496,7 +21496,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1283</v>
       </c>
@@ -21537,7 +21537,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>526</v>
       </c>
@@ -21578,7 +21578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1289</v>
       </c>
@@ -21619,7 +21619,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1293</v>
       </c>
@@ -21660,7 +21660,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1297</v>
       </c>
@@ -21701,7 +21701,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>526</v>
       </c>
@@ -21742,7 +21742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>526</v>
       </c>
@@ -21783,7 +21783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1304</v>
       </c>
@@ -21824,7 +21824,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1308</v>
       </c>
@@ -21865,7 +21865,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>526</v>
       </c>
@@ -21906,7 +21906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1315</v>
       </c>
@@ -21947,7 +21947,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1321</v>
       </c>
@@ -21988,7 +21988,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1326</v>
       </c>
@@ -22029,7 +22029,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1330</v>
       </c>
@@ -22070,7 +22070,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1334</v>
       </c>
@@ -22111,7 +22111,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1339</v>
       </c>
@@ -22152,7 +22152,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1344</v>
       </c>
@@ -22193,7 +22193,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1349</v>
       </c>
@@ -22234,7 +22234,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1355</v>
       </c>
@@ -22275,7 +22275,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1360</v>
       </c>
@@ -22316,7 +22316,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1365</v>
       </c>
@@ -22357,7 +22357,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1370</v>
       </c>
@@ -22398,7 +22398,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1375</v>
       </c>
@@ -22439,7 +22439,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1380</v>
       </c>
@@ -22480,7 +22480,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1385</v>
       </c>
@@ -22521,7 +22521,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1390</v>
       </c>
@@ -22562,7 +22562,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1395</v>
       </c>
@@ -22603,7 +22603,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1400</v>
       </c>
@@ -22644,7 +22644,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1405</v>
       </c>
@@ -22685,7 +22685,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1410</v>
       </c>
@@ -22726,7 +22726,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1415</v>
       </c>
@@ -22767,7 +22767,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1420</v>
       </c>
@@ -22808,7 +22808,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1426</v>
       </c>
@@ -22849,7 +22849,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1431</v>
       </c>
@@ -22890,7 +22890,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1436</v>
       </c>
@@ -22931,7 +22931,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1441</v>
       </c>
@@ -22972,7 +22972,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1447</v>
       </c>
@@ -23013,7 +23013,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1452</v>
       </c>
@@ -23054,7 +23054,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1457</v>
       </c>
@@ -23095,7 +23095,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1461</v>
       </c>
@@ -23136,7 +23136,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>1467</v>
       </c>
@@ -23177,7 +23177,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>1473</v>
       </c>
@@ -23218,7 +23218,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>1477</v>
       </c>
@@ -23259,7 +23259,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>1481</v>
       </c>
@@ -23300,7 +23300,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>1485</v>
       </c>
@@ -23341,7 +23341,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>1489</v>
       </c>
@@ -23382,7 +23382,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>1494</v>
       </c>
@@ -23423,7 +23423,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>15</v>
       </c>
@@ -23464,7 +23464,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>15</v>
       </c>
@@ -23505,7 +23505,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>15</v>
       </c>
@@ -23546,7 +23546,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>15</v>
       </c>
@@ -23587,7 +23587,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>15</v>
       </c>
@@ -23628,7 +23628,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>15</v>
       </c>
@@ -23669,7 +23669,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>15</v>
       </c>
@@ -23710,7 +23710,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>15</v>
       </c>
@@ -23751,7 +23751,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="343" spans="1:13">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>15</v>
       </c>
@@ -23792,7 +23792,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="344" spans="1:13">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>15</v>
       </c>
@@ -23833,7 +23833,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="345" spans="1:13">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>15</v>
       </c>
@@ -23874,7 +23874,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="346" spans="1:13">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>15</v>
       </c>
@@ -23915,7 +23915,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="347" spans="1:13">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>15</v>
       </c>
@@ -23956,7 +23956,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="348" spans="1:13">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>15</v>
       </c>
@@ -23997,7 +23997,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="349" spans="1:13">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>15</v>
       </c>
@@ -24038,7 +24038,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="350" spans="1:13">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>15</v>
       </c>
@@ -24079,7 +24079,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="351" spans="1:13">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>15</v>
       </c>
@@ -24120,7 +24120,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="352" spans="1:13">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>1548</v>
       </c>
@@ -24161,7 +24161,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="353" spans="1:13">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>1554</v>
       </c>
@@ -24202,7 +24202,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="354" spans="1:13">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>1558</v>
       </c>
@@ -24243,7 +24243,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="355" spans="1:13">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>1564</v>
       </c>
@@ -24284,7 +24284,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="356" spans="1:13">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>1570</v>
       </c>
@@ -24325,7 +24325,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="357" spans="1:13">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>1574</v>
       </c>
@@ -24366,7 +24366,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="358" spans="1:13">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>1579</v>
       </c>
@@ -24407,7 +24407,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="359" spans="1:13">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>526</v>
       </c>
@@ -24448,7 +24448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:13">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>1587</v>
       </c>
@@ -24489,7 +24489,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="361" spans="1:13">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>1592</v>
       </c>
@@ -24530,7 +24530,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="362" spans="1:13">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>15</v>
       </c>
@@ -24571,7 +24571,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="363" spans="1:13">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>1601</v>
       </c>
@@ -24612,7 +24612,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="364" spans="1:13">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>1607</v>
       </c>
@@ -24653,7 +24653,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="365" spans="1:13">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>1612</v>
       </c>
@@ -24694,7 +24694,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="366" spans="1:13">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>1614</v>
       </c>
@@ -24735,7 +24735,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="367" spans="1:13">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>1618</v>
       </c>
@@ -24776,7 +24776,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="368" spans="1:13">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>526</v>
       </c>
@@ -24817,7 +24817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:13">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>1622</v>
       </c>
@@ -24858,7 +24858,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="370" spans="1:13">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>526</v>
       </c>
@@ -24899,7 +24899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:13">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>1627</v>
       </c>
@@ -24940,7 +24940,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="372" spans="1:13">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>1631</v>
       </c>
@@ -24981,7 +24981,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="373" spans="1:13">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>1635</v>
       </c>
@@ -25022,7 +25022,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="374" spans="1:13">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>1638</v>
       </c>
@@ -25063,7 +25063,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="375" spans="1:13">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>1643</v>
       </c>
@@ -25104,7 +25104,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="376" spans="1:13">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>1647</v>
       </c>
@@ -25145,7 +25145,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="377" spans="1:13">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>1653</v>
       </c>
@@ -25186,7 +25186,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="378" spans="1:13">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>1657</v>
       </c>
@@ -25227,7 +25227,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="379" spans="1:13">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>1662</v>
       </c>
@@ -25268,7 +25268,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="380" spans="1:13">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>1669</v>
       </c>
@@ -25309,7 +25309,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="381" spans="1:13">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>1672</v>
       </c>
@@ -25350,7 +25350,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="382" spans="1:13">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>1677</v>
       </c>
@@ -25391,7 +25391,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="383" spans="1:13">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>1681</v>
       </c>
@@ -25432,7 +25432,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="384" spans="1:13">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>1686</v>
       </c>
@@ -25473,7 +25473,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="385" spans="1:13">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>1691</v>
       </c>
@@ -25514,7 +25514,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="386" spans="1:13">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>1697</v>
       </c>
@@ -25555,7 +25555,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="387" spans="1:13">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>1702</v>
       </c>
@@ -25596,7 +25596,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="388" spans="1:13">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>1708</v>
       </c>
@@ -25637,7 +25637,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="389" spans="1:13">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>1714</v>
       </c>
@@ -25678,7 +25678,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="390" spans="1:13">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>1720</v>
       </c>
@@ -25719,7 +25719,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="391" spans="1:13">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>1726</v>
       </c>
@@ -25760,7 +25760,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="392" spans="1:13">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>1730</v>
       </c>
@@ -25801,7 +25801,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="393" spans="1:13">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>1734</v>
       </c>
@@ -25842,7 +25842,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="394" spans="1:13">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>1739</v>
       </c>
@@ -25883,7 +25883,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="395" spans="1:13">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>1744</v>
       </c>
@@ -25924,7 +25924,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="396" spans="1:13">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>1748</v>
       </c>
@@ -25965,7 +25965,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="397" spans="1:13">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>1751</v>
       </c>
@@ -26006,7 +26006,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="398" spans="1:13">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>1756</v>
       </c>
@@ -26047,7 +26047,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="399" spans="1:13">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>1760</v>
       </c>
@@ -26088,7 +26088,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="400" spans="1:13">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>1762</v>
       </c>
@@ -26129,7 +26129,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="401" spans="1:13">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>1764</v>
       </c>
@@ -26170,7 +26170,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="402" spans="1:13">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>1767</v>
       </c>
@@ -26211,7 +26211,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="403" spans="1:13">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>1771</v>
       </c>
@@ -26252,7 +26252,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="404" spans="1:13">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>1776</v>
       </c>
@@ -26293,7 +26293,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="405" spans="1:13">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>1780</v>
       </c>
@@ -26334,7 +26334,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="406" spans="1:13">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>1786</v>
       </c>
@@ -26375,7 +26375,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="407" spans="1:13">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>1789</v>
       </c>
@@ -26416,7 +26416,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="408" spans="1:13">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>1792</v>
       </c>
@@ -26457,7 +26457,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="409" spans="1:13">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>1797</v>
       </c>
@@ -26498,7 +26498,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="410" spans="1:13">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>1802</v>
       </c>
@@ -26539,7 +26539,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="411" spans="1:13">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>1807</v>
       </c>
@@ -26580,7 +26580,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="412" spans="1:13">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>1811</v>
       </c>
@@ -26621,7 +26621,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="413" spans="1:13">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>1814</v>
       </c>
@@ -26662,7 +26662,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="414" spans="1:13">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>1817</v>
       </c>
@@ -26703,7 +26703,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="415" spans="1:13">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>1820</v>
       </c>
@@ -26744,7 +26744,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="416" spans="1:13">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>1825</v>
       </c>
@@ -26785,7 +26785,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="417" spans="1:13">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>1830</v>
       </c>
@@ -26826,7 +26826,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="418" spans="1:13">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>1832</v>
       </c>
@@ -26867,7 +26867,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="419" spans="1:13">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>1836</v>
       </c>
@@ -26908,7 +26908,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="420" spans="1:13">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>1841</v>
       </c>
@@ -26949,7 +26949,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="421" spans="1:13">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>1846</v>
       </c>
@@ -26990,7 +26990,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="422" spans="1:13">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>1852</v>
       </c>
@@ -27031,7 +27031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="423" spans="1:13">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>1855</v>
       </c>
@@ -27072,7 +27072,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="424" spans="1:13">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>1859</v>
       </c>
@@ -27113,7 +27113,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="425" spans="1:13">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>526</v>
       </c>
@@ -27154,7 +27154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="426" spans="1:13">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>1863</v>
       </c>
@@ -27195,7 +27195,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="427" spans="1:13">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>1868</v>
       </c>
@@ -27236,7 +27236,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="428" spans="1:13">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>1873</v>
       </c>
@@ -27277,7 +27277,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="429" spans="1:13">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>1876</v>
       </c>
@@ -27318,7 +27318,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="430" spans="1:13">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>1879</v>
       </c>
@@ -27359,7 +27359,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="431" spans="1:13">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>1881</v>
       </c>
@@ -27400,7 +27400,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="432" spans="1:13">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>1887</v>
       </c>
@@ -27441,7 +27441,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="433" spans="1:13">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>1895</v>
       </c>
@@ -27482,7 +27482,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="434" spans="1:13">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>1901</v>
       </c>
@@ -27523,7 +27523,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="435" spans="1:13">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>1905</v>
       </c>
@@ -27564,7 +27564,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="436" spans="1:13">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>1909</v>
       </c>
@@ -27605,7 +27605,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="437" spans="1:13">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>1914</v>
       </c>
@@ -27646,7 +27646,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="438" spans="1:13">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>1920</v>
       </c>
@@ -27687,7 +27687,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="439" spans="1:13">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>1926</v>
       </c>
@@ -27728,7 +27728,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="440" spans="1:13">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>1931</v>
       </c>
@@ -27769,7 +27769,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="441" spans="1:13">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>1936</v>
       </c>
@@ -27810,7 +27810,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="442" spans="1:13">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>1940</v>
       </c>
@@ -27851,7 +27851,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="443" spans="1:13">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>1944</v>
       </c>
@@ -27892,7 +27892,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="444" spans="1:13">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>1950</v>
       </c>
@@ -27933,7 +27933,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="445" spans="1:13">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>1958</v>
       </c>
@@ -27974,7 +27974,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="446" spans="1:13">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>1961</v>
       </c>
@@ -28015,7 +28015,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="447" spans="1:13">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>1966</v>
       </c>
@@ -28056,7 +28056,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="448" spans="1:13">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>1970</v>
       </c>
@@ -28097,7 +28097,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="449" spans="1:13">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>1977</v>
       </c>
@@ -28138,7 +28138,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="450" spans="1:13">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>1983</v>
       </c>
@@ -28179,7 +28179,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="451" spans="1:13">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>1988</v>
       </c>
@@ -28220,7 +28220,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="452" spans="1:13">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>1994</v>
       </c>
@@ -28261,7 +28261,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="453" spans="1:13">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>1999</v>
       </c>
@@ -28302,7 +28302,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="454" spans="1:13">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>2004</v>
       </c>
@@ -28343,7 +28343,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="455" spans="1:13">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>2009</v>
       </c>
@@ -28384,7 +28384,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="456" spans="1:13">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>2014</v>
       </c>
@@ -28425,7 +28425,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="457" spans="1:13">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>2018</v>
       </c>
@@ -28466,7 +28466,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="458" spans="1:13">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>2022</v>
       </c>
@@ -28507,7 +28507,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="459" spans="1:13">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>2028</v>
       </c>
@@ -28548,7 +28548,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="460" spans="1:13">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>2033</v>
       </c>
@@ -28589,7 +28589,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="461" spans="1:13">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>2038</v>
       </c>
@@ -28630,7 +28630,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="462" spans="1:13">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>2043</v>
       </c>
@@ -28671,7 +28671,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="463" spans="1:13">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>2047</v>
       </c>
@@ -28712,7 +28712,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="464" spans="1:13">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>15</v>
       </c>
@@ -28753,7 +28753,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="465" spans="1:13">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>2053</v>
       </c>
@@ -28794,7 +28794,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="466" spans="1:13">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>2059</v>
       </c>
@@ -28835,7 +28835,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="467" spans="1:13">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>2065</v>
       </c>
@@ -28876,7 +28876,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="468" spans="1:13">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>2067</v>
       </c>
@@ -28917,7 +28917,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="469" spans="1:13">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>2071</v>
       </c>
@@ -28958,7 +28958,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="470" spans="1:13">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>2075</v>
       </c>
@@ -28999,7 +28999,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="471" spans="1:13">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>2078</v>
       </c>
@@ -29040,7 +29040,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="472" spans="1:13">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>526</v>
       </c>
@@ -29081,7 +29081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="473" spans="1:13">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>2085</v>
       </c>
@@ -29122,7 +29122,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="474" spans="1:13">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>2091</v>
       </c>
@@ -29163,7 +29163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="475" spans="1:13">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>2094</v>
       </c>
@@ -29204,7 +29204,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="476" spans="1:13">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>2099</v>
       </c>
@@ -29245,7 +29245,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="477" spans="1:13">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>2103</v>
       </c>
@@ -29286,7 +29286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="478" spans="1:13">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>2107</v>
       </c>
@@ -29327,7 +29327,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="479" spans="1:13">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>2112</v>
       </c>
@@ -29368,7 +29368,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="480" spans="1:13">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>2118</v>
       </c>
@@ -29409,7 +29409,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="481" spans="1:13">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>2120</v>
       </c>
@@ -29450,7 +29450,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="482" spans="1:13">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>2126</v>
       </c>
@@ -29491,7 +29491,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="483" spans="1:13">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>2131</v>
       </c>
@@ -29532,7 +29532,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="484" spans="1:13">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>526</v>
       </c>
@@ -29573,7 +29573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="485" spans="1:13">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>2137</v>
       </c>
@@ -29614,7 +29614,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="486" spans="1:13">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>2141</v>
       </c>
@@ -29655,7 +29655,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="487" spans="1:13">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>2147</v>
       </c>
@@ -29696,7 +29696,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="488" spans="1:13">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>2150</v>
       </c>
@@ -29737,7 +29737,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="489" spans="1:13">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>2153</v>
       </c>
@@ -29778,7 +29778,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="490" spans="1:13">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>2157</v>
       </c>
@@ -29819,7 +29819,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="491" spans="1:13">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>2160</v>
       </c>
@@ -29860,7 +29860,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="492" spans="1:13">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>526</v>
       </c>
@@ -29901,7 +29901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="493" spans="1:13">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>2164</v>
       </c>
@@ -29942,7 +29942,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="494" spans="1:13">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>2170</v>
       </c>
@@ -29983,7 +29983,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="495" spans="1:13">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>2172</v>
       </c>
@@ -30024,7 +30024,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="496" spans="1:13">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>2174</v>
       </c>
@@ -30065,7 +30065,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="497" spans="1:13">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>2179</v>
       </c>
@@ -30106,7 +30106,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="498" spans="1:13">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>2181</v>
       </c>
@@ -30147,7 +30147,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="499" spans="1:13">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>2184</v>
       </c>
@@ -30188,7 +30188,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="500" spans="1:13">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>2187</v>
       </c>
@@ -30229,7 +30229,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="501" spans="1:13">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>2191</v>
       </c>
@@ -30270,7 +30270,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="502" spans="1:13">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>2194</v>
       </c>
@@ -30311,7 +30311,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="503" spans="1:13">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>2198</v>
       </c>
@@ -30352,7 +30352,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="504" spans="1:13">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>2201</v>
       </c>
@@ -30393,7 +30393,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="505" spans="1:13">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>2203</v>
       </c>
@@ -30434,7 +30434,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="506" spans="1:13">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>2205</v>
       </c>
@@ -30475,7 +30475,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="507" spans="1:13">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>2207</v>
       </c>
@@ -30516,7 +30516,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="508" spans="1:13">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>2211</v>
       </c>
@@ -30557,7 +30557,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="509" spans="1:13">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>2216</v>
       </c>
@@ -30598,7 +30598,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="510" spans="1:13">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>2220</v>
       </c>
@@ -30639,7 +30639,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="511" spans="1:13">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>2226</v>
       </c>
@@ -30680,7 +30680,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="512" spans="1:13">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>2229</v>
       </c>
@@ -30721,7 +30721,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="513" spans="1:13">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>2233</v>
       </c>
@@ -30762,7 +30762,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="514" spans="1:13">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>2236</v>
       </c>
@@ -30803,7 +30803,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="515" spans="1:13">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>2239</v>
       </c>
@@ -30844,7 +30844,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="516" spans="1:13">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>526</v>
       </c>
@@ -30885,7 +30885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="517" spans="1:13">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>2244</v>
       </c>
@@ -30926,7 +30926,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="518" spans="1:13">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>2250</v>
       </c>
@@ -30967,7 +30967,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="519" spans="1:13">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>2255</v>
       </c>
@@ -31008,7 +31008,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="520" spans="1:13">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>2258</v>
       </c>
@@ -31049,7 +31049,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="521" spans="1:13">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>2262</v>
       </c>
@@ -31090,7 +31090,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="522" spans="1:13">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>526</v>
       </c>
@@ -31131,7 +31131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="523" spans="1:13">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>2267</v>
       </c>
@@ -31172,7 +31172,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="524" spans="1:13">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>2272</v>
       </c>
@@ -31213,7 +31213,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="525" spans="1:13">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>526</v>
       </c>
@@ -31254,7 +31254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="526" spans="1:13">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>2276</v>
       </c>
@@ -31295,7 +31295,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="527" spans="1:13">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>2281</v>
       </c>
@@ -31336,7 +31336,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="528" spans="1:13">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>2286</v>
       </c>
@@ -31377,7 +31377,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="529" spans="1:13">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>2291</v>
       </c>
@@ -31418,7 +31418,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="530" spans="1:13">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>2296</v>
       </c>
@@ -31459,7 +31459,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="531" spans="1:13">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>2301</v>
       </c>
@@ -31500,7 +31500,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="532" spans="1:13">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>2307</v>
       </c>
@@ -31541,7 +31541,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="533" spans="1:13">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>526</v>
       </c>
@@ -31582,7 +31582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="534" spans="1:13">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>526</v>
       </c>
@@ -31623,7 +31623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="535" spans="1:13">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>2317</v>
       </c>
@@ -31664,7 +31664,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="536" spans="1:13">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>2322</v>
       </c>
@@ -31705,7 +31705,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="537" spans="1:13">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>2327</v>
       </c>
@@ -31746,7 +31746,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="538" spans="1:13">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>2332</v>
       </c>
@@ -31787,7 +31787,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="539" spans="1:13">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>2337</v>
       </c>
@@ -31828,7 +31828,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="540" spans="1:13">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>2343</v>
       </c>
@@ -31869,7 +31869,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="541" spans="1:13">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>15</v>
       </c>
@@ -31910,7 +31910,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="542" spans="1:13">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>15</v>
       </c>
@@ -31951,7 +31951,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="543" spans="1:13">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>2352</v>
       </c>
@@ -31992,7 +31992,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="544" spans="1:13">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>2357</v>
       </c>
@@ -32033,7 +32033,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="545" spans="1:13">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>2361</v>
       </c>
@@ -32074,7 +32074,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="546" spans="1:13">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>2365</v>
       </c>
@@ -32115,7 +32115,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="547" spans="1:13">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>2369</v>
       </c>
@@ -32156,7 +32156,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="548" spans="1:13">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>2373</v>
       </c>
@@ -32197,7 +32197,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="549" spans="1:13">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>2378</v>
       </c>
@@ -32238,7 +32238,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="550" spans="1:13">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>2384</v>
       </c>
@@ -32279,7 +32279,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="551" spans="1:13">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>2386</v>
       </c>
@@ -32320,7 +32320,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="552" spans="1:13">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>2390</v>
       </c>
@@ -32361,7 +32361,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="553" spans="1:13">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>2394</v>
       </c>
@@ -32402,7 +32402,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="554" spans="1:13">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>2399</v>
       </c>
@@ -32443,7 +32443,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="555" spans="1:13">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>2406</v>
       </c>
@@ -32484,7 +32484,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="556" spans="1:13">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>2409</v>
       </c>
@@ -32525,7 +32525,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="557" spans="1:13">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>2414</v>
       </c>
@@ -32566,7 +32566,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="558" spans="1:13">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>2419</v>
       </c>
@@ -32607,7 +32607,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="559" spans="1:13">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>2423</v>
       </c>
@@ -32648,7 +32648,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="560" spans="1:13">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>2428</v>
       </c>
@@ -32689,7 +32689,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="561" spans="1:13">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>2432</v>
       </c>
@@ -32730,7 +32730,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="562" spans="1:13">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>2437</v>
       </c>
@@ -32771,7 +32771,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="563" spans="1:13">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>2443</v>
       </c>
@@ -32812,7 +32812,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="564" spans="1:13">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>2448</v>
       </c>
@@ -32853,7 +32853,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="565" spans="1:13">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>2454</v>
       </c>
@@ -32894,7 +32894,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="566" spans="1:13">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>2459</v>
       </c>
@@ -32935,7 +32935,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="567" spans="1:13">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>2465</v>
       </c>
@@ -32976,7 +32976,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="568" spans="1:13">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>2471</v>
       </c>
@@ -33017,7 +33017,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="569" spans="1:13">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>2476</v>
       </c>
@@ -33058,7 +33058,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="570" spans="1:13">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>2481</v>
       </c>
@@ -33099,7 +33099,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="571" spans="1:13">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>2486</v>
       </c>
@@ -33140,7 +33140,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="572" spans="1:13">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>2491</v>
       </c>
@@ -33181,7 +33181,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="573" spans="1:13">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>2495</v>
       </c>
@@ -33222,7 +33222,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="574" spans="1:13">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>2500</v>
       </c>
@@ -33263,7 +33263,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="575" spans="1:13">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>2505</v>
       </c>
@@ -33304,7 +33304,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="576" spans="1:13">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>2510</v>
       </c>
@@ -33345,7 +33345,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="577" spans="1:13">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>2515</v>
       </c>
@@ -33386,7 +33386,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="578" spans="1:13">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>2520</v>
       </c>
@@ -33427,7 +33427,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="579" spans="1:13">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>2525</v>
       </c>
@@ -33468,7 +33468,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="580" spans="1:13">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>2530</v>
       </c>
@@ -33509,7 +33509,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="581" spans="1:13">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>2534</v>
       </c>
@@ -33550,7 +33550,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="582" spans="1:13">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>2539</v>
       </c>
@@ -33591,7 +33591,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="583" spans="1:13">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>2543</v>
       </c>
@@ -33632,7 +33632,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="584" spans="1:13">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>15</v>
       </c>
@@ -33673,7 +33673,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="585" spans="1:13">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>15</v>
       </c>
@@ -33714,7 +33714,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="586" spans="1:13">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>15</v>
       </c>
@@ -33755,7 +33755,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="587" spans="1:13">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>2563</v>
       </c>
@@ -33796,7 +33796,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="588" spans="1:13">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>2570</v>
       </c>
@@ -33837,7 +33837,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="589" spans="1:13">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>2575</v>
       </c>
@@ -33878,7 +33878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="590" spans="1:13">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>2579</v>
       </c>
@@ -33919,7 +33919,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="591" spans="1:13">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>2582</v>
       </c>
@@ -33960,7 +33960,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="592" spans="1:13">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>2586</v>
       </c>
@@ -34001,7 +34001,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="593" spans="1:13">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>2591</v>
       </c>
@@ -34042,7 +34042,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="594" spans="1:13">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>2595</v>
       </c>
@@ -34083,7 +34083,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="595" spans="1:13">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>2598</v>
       </c>
@@ -34124,7 +34124,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="596" spans="1:13">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>2602</v>
       </c>
@@ -34165,7 +34165,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="597" spans="1:13">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>2608</v>
       </c>
@@ -34206,7 +34206,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="598" spans="1:13">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>2613</v>
       </c>
@@ -34247,7 +34247,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="599" spans="1:13">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>2619</v>
       </c>
@@ -34288,7 +34288,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="600" spans="1:13">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>2622</v>
       </c>
@@ -34329,7 +34329,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="601" spans="1:13">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>2627</v>
       </c>
@@ -34370,7 +34370,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="602" spans="1:13">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>2629</v>
       </c>
@@ -34411,7 +34411,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="603" spans="1:13">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>2634</v>
       </c>
@@ -34452,7 +34452,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="604" spans="1:13">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>2639</v>
       </c>
@@ -34493,7 +34493,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="605" spans="1:13">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>526</v>
       </c>
@@ -34534,7 +34534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="606" spans="1:13">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>526</v>
       </c>
@@ -34575,7 +34575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="607" spans="1:13">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>526</v>
       </c>
@@ -34616,7 +34616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="608" spans="1:13">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>2648</v>
       </c>
@@ -34657,7 +34657,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="609" spans="1:13">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>2652</v>
       </c>
@@ -34698,7 +34698,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="610" spans="1:13">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>2658</v>
       </c>
@@ -34739,7 +34739,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="611" spans="1:13">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>2663</v>
       </c>
@@ -34780,7 +34780,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="612" spans="1:13">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>2668</v>
       </c>
@@ -34821,7 +34821,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="613" spans="1:13">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>2672</v>
       </c>
@@ -34862,7 +34862,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="614" spans="1:13">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>2675</v>
       </c>
@@ -34903,7 +34903,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="615" spans="1:13">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>2680</v>
       </c>
@@ -34944,7 +34944,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="616" spans="1:13">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>2684</v>
       </c>
@@ -34985,7 +34985,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="617" spans="1:13">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>2688</v>
       </c>
@@ -35026,7 +35026,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="618" spans="1:13">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>2693</v>
       </c>
@@ -35067,7 +35067,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="619" spans="1:13">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>2700</v>
       </c>
@@ -35108,7 +35108,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="620" spans="1:13">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>2706</v>
       </c>
@@ -35149,7 +35149,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="621" spans="1:13">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>2712</v>
       </c>
@@ -35190,7 +35190,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="622" spans="1:13">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>2719</v>
       </c>
@@ -35231,7 +35231,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="623" spans="1:13">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>2722</v>
       </c>
@@ -35272,7 +35272,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="624" spans="1:13">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>2726</v>
       </c>
@@ -35313,7 +35313,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="625" spans="1:13">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>2730</v>
       </c>
@@ -35354,7 +35354,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="626" spans="1:13">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>526</v>
       </c>
@@ -35395,7 +35395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="627" spans="1:13">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>2737</v>
       </c>
@@ -35436,7 +35436,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="628" spans="1:13">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>2743</v>
       </c>
@@ -35477,7 +35477,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="629" spans="1:13">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>526</v>
       </c>
@@ -35518,7 +35518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="630" spans="1:13">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>526</v>
       </c>
@@ -35559,7 +35559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="631" spans="1:13">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>2751</v>
       </c>
@@ -35600,7 +35600,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="632" spans="1:13">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>2756</v>
       </c>
@@ -35641,7 +35641,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="633" spans="1:13">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>2760</v>
       </c>
@@ -35682,7 +35682,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="634" spans="1:13">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>2766</v>
       </c>
@@ -35723,7 +35723,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="635" spans="1:13">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>2770</v>
       </c>
@@ -35764,7 +35764,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="636" spans="1:13">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>2772</v>
       </c>
@@ -35805,7 +35805,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="637" spans="1:13">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>2778</v>
       </c>
@@ -35846,7 +35846,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="638" spans="1:13">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>2784</v>
       </c>
@@ -35887,7 +35887,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="639" spans="1:13">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>2787</v>
       </c>
@@ -35928,7 +35928,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="640" spans="1:13">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>2792</v>
       </c>
@@ -35969,7 +35969,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="641" spans="1:13">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>2795</v>
       </c>
@@ -36010,7 +36010,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="642" spans="1:13">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>2798</v>
       </c>
@@ -36051,7 +36051,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="643" spans="1:13">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>2801</v>
       </c>
@@ -36092,7 +36092,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="644" spans="1:13">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>2805</v>
       </c>
@@ -36133,7 +36133,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="645" spans="1:13">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>2811</v>
       </c>
@@ -36174,7 +36174,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="646" spans="1:13">
+    <row r="646" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>2817</v>
       </c>
@@ -36215,7 +36215,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="647" spans="1:13">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>2822</v>
       </c>
@@ -36256,7 +36256,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="648" spans="1:13">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>2828</v>
       </c>
@@ -36297,7 +36297,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="649" spans="1:13">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>2835</v>
       </c>
@@ -36338,7 +36338,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="650" spans="1:13">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>2841</v>
       </c>
@@ -36379,7 +36379,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="651" spans="1:13">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>2845</v>
       </c>
@@ -36420,7 +36420,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="652" spans="1:13">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>2850</v>
       </c>
@@ -36461,7 +36461,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="653" spans="1:13">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>2855</v>
       </c>
@@ -36502,7 +36502,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="654" spans="1:13">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>2861</v>
       </c>
@@ -36543,7 +36543,7 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="655" spans="1:13">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>2867</v>
       </c>
@@ -36584,7 +36584,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="656" spans="1:13">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>2872</v>
       </c>
@@ -36625,7 +36625,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="657" spans="1:13">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>2877</v>
       </c>
@@ -36666,7 +36666,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="658" spans="1:13">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>2882</v>
       </c>
@@ -36707,7 +36707,7 @@
         <v>2886</v>
       </c>
     </row>
-    <row r="659" spans="1:13">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>2887</v>
       </c>
@@ -36748,7 +36748,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="660" spans="1:13">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>2890</v>
       </c>
@@ -36789,7 +36789,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="661" spans="1:13">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>2894</v>
       </c>
@@ -36830,7 +36830,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="662" spans="1:13">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>2897</v>
       </c>
@@ -36871,7 +36871,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="663" spans="1:13">
+    <row r="663" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>2902</v>
       </c>
@@ -36912,7 +36912,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="664" spans="1:13">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>2904</v>
       </c>
@@ -36953,7 +36953,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="665" spans="1:13">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>2907</v>
       </c>
@@ -36994,7 +36994,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="666" spans="1:13">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>2911</v>
       </c>
@@ -37035,7 +37035,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="667" spans="1:13">
+    <row r="667" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>2915</v>
       </c>
@@ -37076,7 +37076,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="668" spans="1:13">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>526</v>
       </c>
@@ -37117,7 +37117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="669" spans="1:13">
+    <row r="669" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>2922</v>
       </c>
@@ -37158,7 +37158,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="670" spans="1:13">
+    <row r="670" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>2924</v>
       </c>
@@ -37199,7 +37199,7 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="671" spans="1:13">
+    <row r="671" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>2928</v>
       </c>
@@ -37240,7 +37240,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="672" spans="1:13">
+    <row r="672" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>2931</v>
       </c>
@@ -37281,7 +37281,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="673" spans="1:13">
+    <row r="673" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>2936</v>
       </c>
@@ -37322,7 +37322,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="674" spans="1:13">
+    <row r="674" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>2940</v>
       </c>
@@ -37363,7 +37363,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="675" spans="1:13">
+    <row r="675" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>2945</v>
       </c>
@@ -37404,7 +37404,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="676" spans="1:13">
+    <row r="676" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>2950</v>
       </c>
@@ -37445,7 +37445,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="677" spans="1:13">
+    <row r="677" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>2953</v>
       </c>
@@ -37486,7 +37486,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="678" spans="1:13">
+    <row r="678" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>2955</v>
       </c>
@@ -37527,7 +37527,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="679" spans="1:13">
+    <row r="679" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>2957</v>
       </c>
@@ -37568,7 +37568,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="680" spans="1:13">
+    <row r="680" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>2961</v>
       </c>
@@ -37609,7 +37609,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="681" spans="1:13">
+    <row r="681" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>2963</v>
       </c>
@@ -37650,7 +37650,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="682" spans="1:13">
+    <row r="682" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>2967</v>
       </c>
@@ -37691,7 +37691,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="683" spans="1:13">
+    <row r="683" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>2973</v>
       </c>
@@ -37732,7 +37732,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="684" spans="1:13">
+    <row r="684" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>2975</v>
       </c>
@@ -37773,7 +37773,7 @@
         <v>2979</v>
       </c>
     </row>
-    <row r="685" spans="1:13">
+    <row r="685" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>2980</v>
       </c>
@@ -37814,7 +37814,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="686" spans="1:13">
+    <row r="686" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>2982</v>
       </c>
@@ -37855,7 +37855,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="687" spans="1:13">
+    <row r="687" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>2987</v>
       </c>
@@ -37896,7 +37896,7 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="688" spans="1:13">
+    <row r="688" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>2992</v>
       </c>
@@ -37937,7 +37937,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="689" spans="1:13">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>526</v>
       </c>
@@ -37978,7 +37978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="690" spans="1:13">
+    <row r="690" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>2998</v>
       </c>
@@ -38019,7 +38019,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="691" spans="1:13">
+    <row r="691" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>3004</v>
       </c>
@@ -38060,7 +38060,7 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="692" spans="1:13">
+    <row r="692" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>3009</v>
       </c>
@@ -38101,7 +38101,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="693" spans="1:13">
+    <row r="693" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>3015</v>
       </c>
@@ -38142,7 +38142,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="694" spans="1:13">
+    <row r="694" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>3021</v>
       </c>
@@ -38183,7 +38183,7 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="695" spans="1:13">
+    <row r="695" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>3027</v>
       </c>
@@ -38224,7 +38224,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="696" spans="1:13">
+    <row r="696" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>3032</v>
       </c>
@@ -38265,7 +38265,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="697" spans="1:13">
+    <row r="697" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>3038</v>
       </c>
@@ -38306,7 +38306,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="698" spans="1:13">
+    <row r="698" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>3042</v>
       </c>
@@ -38347,7 +38347,7 @@
         <v>3047</v>
       </c>
     </row>
-    <row r="699" spans="1:13">
+    <row r="699" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>15</v>
       </c>
@@ -38388,7 +38388,7 @@
         <v>3051</v>
       </c>
     </row>
-    <row r="700" spans="1:13">
+    <row r="700" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>15</v>
       </c>
@@ -38429,7 +38429,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="701" spans="1:13">
+    <row r="701" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>15</v>
       </c>
@@ -38470,7 +38470,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="702" spans="1:13">
+    <row r="702" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>15</v>
       </c>
@@ -38511,7 +38511,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="703" spans="1:13">
+    <row r="703" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>15</v>
       </c>
@@ -38550,7 +38550,7 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="704" spans="1:13">
+    <row r="704" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>3065</v>
       </c>
@@ -38591,7 +38591,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="705" spans="1:13">
+    <row r="705" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>15</v>
       </c>
@@ -38644,5 +38644,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C81F841B-4769-2E43-9669-214FC52A4C3A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C81F841B-4769-2E43-9669-214FC52A4C3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>